--- a/uploads/inventorysales.xlsx
+++ b/uploads/inventorysales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CD8945-4A76-4CDE-8A9D-AF63DB66EE6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9886E0B0-89C1-46E3-A259-0D16B7A46A7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Particulars</t>
-  </si>
-  <si>
-    <t>Apr</t>
   </si>
   <si>
     <t>Finished Goods</t>
@@ -156,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="69" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -450,27 +448,27 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1">
+        <v>45383</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>44642.14</v>
@@ -484,7 +482,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>37538.47</v>
@@ -498,7 +496,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -506,7 +504,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>85.5</v>
@@ -520,7 +518,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -528,7 +526,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>7000</v>
@@ -553,7 +551,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>479</v>
@@ -567,7 +565,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1089.3</v>
@@ -581,7 +579,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>6074.6</v>
@@ -595,7 +593,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -603,7 +601,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>105</v>
@@ -617,7 +615,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -642,7 +640,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -650,7 +648,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -658,7 +656,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>3436</v>
@@ -672,7 +670,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -680,7 +678,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>38030</v>
@@ -705,7 +703,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>138500.01</v>
@@ -719,7 +717,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>2.5</v>
@@ -732,7 +730,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>29113238.890000001</v>
@@ -740,7 +738,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>2010259.07</v>
@@ -748,7 +746,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -766,7 +764,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>38985</v>
@@ -779,7 +777,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>129564</v>
@@ -792,7 +790,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36">
         <v>26939056</v>
@@ -800,7 +798,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>38030</v>

--- a/uploads/inventorysales.xlsx
+++ b/uploads/inventorysales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9886E0B0-89C1-46E3-A259-0D16B7A46A7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8A602-96CD-4B62-8F14-A709DCFC0D18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>45383</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -471,13 +471,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>44642.14</v>
+        <v>53859.21</v>
       </c>
       <c r="C4">
-        <v>261.12424269983472</v>
+        <v>260.95243506170999</v>
       </c>
       <c r="D4">
-        <v>11657145</v>
+        <v>14054692</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,13 +485,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>37538.47</v>
+        <v>41654.76</v>
       </c>
       <c r="C5">
-        <v>250.6423410437346</v>
+        <v>261.69261808254322</v>
       </c>
       <c r="D5">
-        <v>9408730</v>
+        <v>10900743.199999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,21 +507,27 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>85.5</v>
+        <v>135.58000000000001</v>
       </c>
       <c r="C7">
-        <v>275.55555555555554</v>
+        <v>497.8610414515415</v>
       </c>
       <c r="D7">
-        <v>23560</v>
+        <v>67500</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>10.02</v>
+      </c>
       <c r="C8">
-        <v>0</v>
+        <v>673.65269461077844</v>
+      </c>
+      <c r="D8">
+        <v>6750</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,24 +535,24 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>7000</v>
+        <v>9050</v>
       </c>
       <c r="C9">
-        <v>132.32142857142858</v>
+        <v>131.50552486187846</v>
       </c>
       <c r="D9">
-        <v>926250</v>
+        <v>1190125</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>89266.11</v>
+        <v>104709.57</v>
       </c>
       <c r="C10">
-        <v>246.62982401719981</v>
+        <v>250.40509859796003</v>
       </c>
       <c r="D10">
-        <v>22015685</v>
+        <v>26219810.199999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -554,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>479</v>
+        <v>42.9</v>
       </c>
       <c r="C11">
-        <v>252.60960334029227</v>
+        <v>242.42424242424244</v>
       </c>
       <c r="D11">
-        <v>121000</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1089.3</v>
+        <v>298.25</v>
       </c>
       <c r="C12">
-        <v>221.50555402552098</v>
+        <v>237.08298407376361</v>
       </c>
       <c r="D12">
-        <v>241286</v>
+        <v>70710</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -582,13 +588,13 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6074.6</v>
+        <v>6605</v>
       </c>
       <c r="C13">
-        <v>140.44995884502683</v>
+        <v>148.13641180923543</v>
       </c>
       <c r="D13">
-        <v>853177.32</v>
+        <v>978441</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -604,13 +610,13 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>105</v>
+        <v>1192.03</v>
       </c>
       <c r="C15">
-        <v>258.5</v>
+        <v>256.74924288818232</v>
       </c>
       <c r="D15">
-        <v>27142.5</v>
+        <v>306052.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -618,24 +624,24 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>949.42</v>
       </c>
       <c r="C16">
-        <v>190</v>
+        <v>193.17888816329969</v>
       </c>
       <c r="D16">
-        <v>3800</v>
+        <v>183407.9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>7767.9000000000005</v>
+        <v>9087.5999999999985</v>
       </c>
       <c r="C17">
-        <v>160.45595592116271</v>
+        <v>170.45333201285271</v>
       </c>
       <c r="D17">
-        <v>1246405.8199999998</v>
+        <v>1549011.7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -659,13 +665,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3436</v>
+        <v>4134</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>34360</v>
+        <v>41340</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -681,24 +687,24 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>38030</v>
+        <v>54225</v>
       </c>
       <c r="C22">
-        <v>97.711017617670265</v>
+        <v>96.550023052097742</v>
       </c>
       <c r="D22">
-        <v>3715950</v>
+        <v>5235425</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>41466</v>
+        <v>58564</v>
       </c>
       <c r="C23">
-        <v>90.443013553272564</v>
+        <v>90.876477016597221</v>
       </c>
       <c r="D23">
-        <v>3750310</v>
+        <v>5322090</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -706,26 +712,32 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>138500.01</v>
+        <v>172361.17</v>
       </c>
       <c r="C24">
-        <v>195.0353708999732</v>
+        <v>191.98588580014859</v>
       </c>
       <c r="D24">
-        <v>27012400.82</v>
+        <v>33090911.899999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>172361.17</v>
+      </c>
       <c r="D25">
-        <v>2.5</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="D26">
-        <v>26978041</v>
+        <v>33049572</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -733,7 +745,7 @@
         <v>24</v>
       </c>
       <c r="D27">
-        <v>29113238.890000001</v>
+        <v>35651792.899999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -741,25 +753,22 @@
         <v>25</v>
       </c>
       <c r="D28">
-        <v>2010259.07</v>
+        <v>2566561</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D30">
-        <v>2010259.07</v>
+        <v>2566561</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D31">
-        <v>27102979.82</v>
+        <v>33085231.899999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -767,12 +776,12 @@
         <v>27</v>
       </c>
       <c r="D32">
-        <v>38985</v>
+        <v>101080</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33">
-        <v>27012400.82</v>
+        <v>33090911.899999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -780,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="D34">
-        <v>129564</v>
+        <v>95400</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -793,7 +802,7 @@
         <v>29</v>
       </c>
       <c r="D36">
-        <v>26939056</v>
+        <v>32948492</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -801,13 +810,13 @@
         <v>30</v>
       </c>
       <c r="B39">
-        <v>38030</v>
+        <v>54225</v>
       </c>
       <c r="C39">
-        <v>96.71</v>
+        <v>90.36</v>
       </c>
       <c r="D39">
-        <v>3677881</v>
+        <v>4899771</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/inventorysales.xlsx
+++ b/uploads/inventorysales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8A602-96CD-4B62-8F14-A709DCFC0D18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE1AEB3-4FEC-47B9-A62D-91F538DCF5AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Particulars</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>RM Purchase for sales</t>
+  </si>
+  <si>
+    <t>Master Batch</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -449,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>45413</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -471,13 +474,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>53859.21</v>
+        <v>53144.26</v>
       </c>
       <c r="C4">
-        <v>260.95243506170999</v>
+        <v>257.17490468396772</v>
       </c>
       <c r="D4">
-        <v>14054692</v>
+        <v>13667370</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,13 +488,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>41654.76</v>
+        <v>62641.39</v>
       </c>
       <c r="C5">
-        <v>261.69261808254322</v>
+        <v>258.28611881058197</v>
       </c>
       <c r="D5">
-        <v>10900743.199999999</v>
+        <v>16179401.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,27 +510,21 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>135.58000000000001</v>
+        <v>120.5</v>
       </c>
       <c r="C7">
-        <v>497.8610414515415</v>
+        <v>348.54771784232366</v>
       </c>
       <c r="D7">
-        <v>67500</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>10.02</v>
-      </c>
       <c r="C8">
-        <v>673.65269461077844</v>
-      </c>
-      <c r="D8">
-        <v>6750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,24 +532,24 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>9050</v>
+        <v>12275</v>
       </c>
       <c r="C9">
-        <v>131.50552486187846</v>
+        <v>132.37270875763747</v>
       </c>
       <c r="D9">
-        <v>1190125</v>
+        <v>1624875</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>104709.57</v>
+        <v>128181.15</v>
       </c>
       <c r="C10">
-        <v>250.40509859796003</v>
+        <v>245.8524244789503</v>
       </c>
       <c r="D10">
-        <v>26219810.199999999</v>
+        <v>31513646.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -560,13 +557,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>42.9</v>
+        <v>1203.25</v>
       </c>
       <c r="C11">
-        <v>242.42424242424244</v>
+        <v>275.36796177020568</v>
       </c>
       <c r="D11">
-        <v>10400</v>
+        <v>331336.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -574,13 +571,13 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>298.25</v>
+        <v>806</v>
       </c>
       <c r="C12">
-        <v>237.08298407376361</v>
+        <v>219.96153846153845</v>
       </c>
       <c r="D12">
-        <v>70710</v>
+        <v>177289</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -588,13 +585,13 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6605</v>
+        <v>7455.4</v>
       </c>
       <c r="C13">
-        <v>148.13641180923543</v>
+        <v>165.40229632212893</v>
       </c>
       <c r="D13">
-        <v>978441</v>
+        <v>1233140.28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,14 +606,8 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1192.03</v>
-      </c>
       <c r="C15">
-        <v>256.74924288818232</v>
-      </c>
-      <c r="D15">
-        <v>306052.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -624,24 +615,24 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>949.42</v>
+        <v>300</v>
       </c>
       <c r="C16">
-        <v>193.17888816329969</v>
+        <v>180</v>
       </c>
       <c r="D16">
-        <v>183407.9</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>9087.5999999999985</v>
+        <v>9764.65</v>
       </c>
       <c r="C17">
-        <v>170.45333201285271</v>
+        <v>183.9047769249282</v>
       </c>
       <c r="D17">
-        <v>1549011.7</v>
+        <v>1795765.78</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -665,13 +656,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4134</v>
+        <v>5060</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>41340</v>
+        <v>50600</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -684,139 +675,150 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>205</v>
+      </c>
+      <c r="C22">
+        <v>268.6829268292683</v>
+      </c>
+      <c r="D22">
+        <v>55080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>54225</v>
-      </c>
-      <c r="C22">
-        <v>96.550023052097742</v>
-      </c>
-      <c r="D22">
-        <v>5235425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>58564</v>
+        <v>39000</v>
       </c>
       <c r="C23">
-        <v>90.876477016597221</v>
+        <v>95.65384615384616</v>
       </c>
       <c r="D23">
-        <v>5322090</v>
+        <v>3730500</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
       <c r="B24">
-        <v>172361.17</v>
+        <v>44265</v>
       </c>
       <c r="C24">
-        <v>191.98588580014859</v>
+        <v>86.66395572122444</v>
       </c>
       <c r="D24">
-        <v>33090911.899999999</v>
+        <v>3836180</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>182210.8</v>
+      </c>
+      <c r="C25">
+        <v>203.86054108757551</v>
+      </c>
+      <c r="D25">
+        <v>37145592.280000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>172361.17</v>
-      </c>
-      <c r="D25">
-        <v>10.94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>0</v>
-      </c>
       <c r="D26">
-        <v>33049572</v>
+        <v>28147.32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
       <c r="D27">
-        <v>35651792.899999999</v>
+        <v>37094992</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>2566561</v>
+        <v>39426761.700000003</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>2514816.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D30">
-        <v>2566561</v>
+        <v>13012.73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D31">
-        <v>33085231.899999999</v>
+        <v>2527829.42</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="D32">
+        <v>36898932.280000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="D32">
-        <v>101080</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33">
-        <v>33090911.899999999</v>
+        <v>246660</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="D34">
+        <v>37145592.280000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="D34">
-        <v>95400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="D36">
-        <v>32948492</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="D37">
+        <v>36848332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>30</v>
       </c>
-      <c r="B39">
-        <v>54225</v>
-      </c>
-      <c r="C39">
-        <v>90.36</v>
-      </c>
-      <c r="D39">
-        <v>4899771</v>
+      <c r="B40">
+        <v>39000</v>
+      </c>
+      <c r="C40">
+        <v>96.36</v>
+      </c>
+      <c r="D40">
+        <v>3758040</v>
       </c>
     </row>
   </sheetData>
